--- a/files/FA/FA_AEGB.xlsx
+++ b/files/FA/FA_AEGB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xyi17\Desktop\B.C.S\FYP\FYP-StockScreener\files\FA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735"/>
+    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Highlights" sheetId="2" r:id="rId1"/>
@@ -668,9 +673,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1337,7 +1342,7 @@
     <xf numFmtId="3" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2">
@@ -1346,7 +1351,7 @@
     <xf numFmtId="3" fontId="1" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="35" borderId="2">
@@ -1355,7 +1360,7 @@
     <xf numFmtId="3" fontId="8" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="34" borderId="2">
@@ -1364,26 +1369,26 @@
     <xf numFmtId="3" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="11" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1411,7 +1416,7 @@
     <xf numFmtId="3" fontId="1" fillId="34" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1420,7 +1425,7 @@
     <xf numFmtId="3" fontId="1" fillId="35" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="35" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="35" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1429,7 +1434,7 @@
     <xf numFmtId="3" fontId="8" fillId="34" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="34" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="34" borderId="2" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1438,22 +1443,25 @@
     <xf numFmtId="3" fontId="8" fillId="35" borderId="2" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="35" borderId="2" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="35" borderId="2" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="35" borderId="2" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="34" borderId="2" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="2" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="34" borderId="2" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="35" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="35" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="35" borderId="2" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1534,6 +1542,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1581,7 +1592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1614,9 +1625,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1649,6 +1677,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1827,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2537,9 +2582,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2948,7 +2995,7 @@
       </c>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>59</v>
       </c>
@@ -2978,7 +3025,7 @@
       </c>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>67</v>
       </c>
@@ -3008,7 +3055,7 @@
       </c>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>59</v>
       </c>
@@ -3038,7 +3085,7 @@
       </c>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>69</v>
       </c>
@@ -3070,7 +3117,7 @@
         <v>-5.3900000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
@@ -3102,7 +3149,7 @@
         <v>50.595783684692996</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>71</v>
       </c>
@@ -3134,7 +3181,7 @@
         <v>-5.3900000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>59</v>
       </c>
@@ -3166,7 +3213,7 @@
         <v>49.006622516556298</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>73</v>
       </c>
@@ -3196,7 +3243,7 @@
       </c>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>59</v>
       </c>
@@ -3226,7 +3273,7 @@
       </c>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>75</v>
       </c>
@@ -3256,7 +3303,7 @@
       </c>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>59</v>
       </c>
@@ -3288,7 +3335,7 @@
         <v>10.989010989011</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>77</v>
       </c>
@@ -3318,7 +3365,7 @@
       </c>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>59</v>
       </c>
@@ -3350,7 +3397,7 @@
         <v>10.989010989011</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>79</v>
       </c>
@@ -3380,7 +3427,7 @@
       </c>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>59</v>
       </c>
@@ -3410,7 +3457,7 @@
       </c>
       <c r="J31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>81</v>
       </c>
@@ -3439,8 +3486,9 @@
         <v>0.1</v>
       </c>
       <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="28"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>59</v>
       </c>
@@ -3469,8 +3517,9 @@
         <v>24</v>
       </c>
       <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="28"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3482,7 +3531,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>83</v>
       </c>
@@ -3512,7 +3561,7 @@
       </c>
       <c r="J35" s="17"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>59</v>
       </c>
@@ -3542,7 +3591,7 @@
       </c>
       <c r="J36" s="26"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>51</v>
       </c>
@@ -3572,7 +3621,7 @@
       </c>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
@@ -3602,7 +3651,7 @@
       </c>
       <c r="J38" s="26"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3614,7 +3663,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>2</v>
       </c>
@@ -3646,7 +3695,7 @@
         <v>4.6623445716737502E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>59</v>
       </c>
@@ -3676,7 +3725,7 @@
       </c>
       <c r="J41" s="26"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>87</v>
       </c>
@@ -3708,7 +3757,7 @@
         <v>0.37697079384406701</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>59</v>
       </c>
@@ -3738,7 +3787,7 @@
       </c>
       <c r="J43" s="26"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>89</v>
       </c>
@@ -3768,7 +3817,7 @@
       </c>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>59</v>
       </c>
@@ -3798,7 +3847,7 @@
       </c>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
